--- a/softeng22-25-presentation.xlsx
+++ b/softeng22-25-presentation.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charilaos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charilaos\workspace\SoftEng22-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13695"/>
   </bookViews>
   <sheets>
     <sheet name="softeng 22" sheetId="1" r:id="rId1"/>
@@ -24,25 +24,17 @@
     <definedName name="_subm3">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>ΠΑΡΟΥΣΙΑΣΗ ΕΡΓΑΣΙΑΣ</t>
   </si>
@@ -189,6 +181,30 @@
   </si>
   <si>
     <t>el19705</t>
+  </si>
+  <si>
+    <t>nodejs, express</t>
+  </si>
+  <si>
+    <t>postman</t>
+  </si>
+  <si>
+    <t>nodejs</t>
+  </si>
+  <si>
+    <t>nodejs, react</t>
+  </si>
+  <si>
+    <t>supertest, mochajs, chai</t>
+  </si>
+  <si>
+    <t>https://github.com/ntua/SoftEng22-25</t>
+  </si>
+  <si>
+    <t>github native features</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -397,12 +413,12 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -741,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="89" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -778,7 +794,7 @@
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -789,7 +805,7 @@
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -890,7 +906,9 @@
       <c r="A17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
     </row>
@@ -898,7 +916,9 @@
       <c r="A18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
     </row>
@@ -906,7 +926,9 @@
       <c r="A19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
     </row>
@@ -914,7 +936,9 @@
       <c r="A20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
     </row>
@@ -922,7 +946,9 @@
       <c r="A21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
     </row>
@@ -930,7 +956,9 @@
       <c r="A22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
     </row>
@@ -938,7 +966,9 @@
       <c r="A23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
     </row>
@@ -954,7 +984,9 @@
       <c r="A25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
     </row>
@@ -962,7 +994,9 @@
       <c r="A26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
     </row>
@@ -970,7 +1004,9 @@
       <c r="A27" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
     </row>
@@ -978,7 +1014,9 @@
       <c r="A28" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
     </row>
@@ -986,7 +1024,9 @@
       <c r="A29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
     </row>
@@ -1010,7 +1050,9 @@
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
     </row>
@@ -1026,7 +1068,9 @@
       <c r="A34" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
     </row>
@@ -1050,7 +1094,9 @@
       <c r="A37" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
     </row>
@@ -1058,7 +1104,9 @@
       <c r="A38" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
     </row>
